--- a/tempo-em-Vinhedo.xlsx
+++ b/tempo-em-Vinhedo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danilo.ferreira\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danilo.ferreira\Documents\projetos\local camara Vinhedo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -422,9 +422,6 @@
     <t xml:space="preserve">48B </t>
   </si>
   <si>
-    <t xml:space="preserve"> Tirar gambiarra de exibição de mês ERRO: não acerta ano! </t>
-  </si>
-  <si>
     <t>55B</t>
   </si>
   <si>
@@ -456,6 +453,9 @@
   </si>
   <si>
     <t>dias úteis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tirar gambiarra de exibição de mês INCLUIR descritivo</t>
   </si>
 </sst>
 </file>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,7 +1416,7 @@
         <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C58">
         <v>50</v>
@@ -1614,7 +1614,7 @@
         <v>53</v>
       </c>
       <c r="B76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C76">
         <v>80</v>
@@ -1724,7 +1724,7 @@
         <v>51</v>
       </c>
       <c r="B86" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C86">
         <v>200</v>
@@ -1807,44 +1807,44 @@
         <v>960</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>1</v>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B94" t="s">
+        <v>133</v>
+      </c>
+      <c r="C94">
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B96" t="s">
-        <v>132</v>
-      </c>
-      <c r="C96">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>2</v>
+      <c r="B97" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97">
+        <v>1920</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B99" t="s">
-        <v>134</v>
-      </c>
-      <c r="C99">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B100" t="s">
         <v>135</v>
-      </c>
-      <c r="B100" t="s">
-        <v>136</v>
       </c>
       <c r="C100">
         <v>20</v>
@@ -1855,7 +1855,7 @@
         <v>56</v>
       </c>
       <c r="B101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C101">
         <v>40</v>
@@ -1863,27 +1863,27 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
+        <v>140</v>
+      </c>
+      <c r="D102" t="s">
         <v>141</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>142</v>
-      </c>
-      <c r="E102" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C103">
         <f>SUM(C1:C101)</f>
-        <v>16670</v>
+        <v>18230</v>
       </c>
       <c r="D103" s="2">
         <f>C103/60</f>
-        <v>277.83333333333331</v>
+        <v>303.83333333333331</v>
       </c>
       <c r="E103" s="2">
         <f>D103/8</f>
-        <v>34.729166666666664</v>
+        <v>37.979166666666664</v>
       </c>
     </row>
   </sheetData>

--- a/tempo-em-Vinhedo.xlsx
+++ b/tempo-em-Vinhedo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="147">
   <si>
     <t>FEITO:</t>
   </si>
@@ -456,6 +456,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Tirar gambiarra de exibição de mês INCLUIR descritivo</t>
+  </si>
+  <si>
+    <t>53A</t>
+  </si>
+  <si>
+    <t>53B</t>
+  </si>
+  <si>
+    <t>54A</t>
   </si>
 </sst>
 </file>
@@ -779,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,8 +1608,8 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>54</v>
+      <c r="A75" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="B75" t="s">
         <v>110</v>
@@ -1610,8 +1619,8 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>53</v>
+      <c r="A76" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="B76" t="s">
         <v>136</v>
@@ -1621,8 +1630,8 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>54</v>
+      <c r="A77" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B77" t="s">
         <v>111</v>

--- a/tempo-em-Vinhedo.xlsx
+++ b/tempo-em-Vinhedo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="152">
   <si>
     <t>FEITO:</t>
   </si>
@@ -431,9 +431,6 @@
     <t>4B</t>
   </si>
   <si>
-    <t xml:space="preserve"> Eportação de csv como pedido pelo Fabrício </t>
-  </si>
-  <si>
     <t xml:space="preserve"> E-mails de vereadores e teste </t>
   </si>
   <si>
@@ -465,14 +462,40 @@
   </si>
   <si>
     <t>54A</t>
+  </si>
+  <si>
+    <t>Setas do calendário no Edge</t>
+  </si>
+  <si>
+    <t>Corrigir DE VEZ erro de distância do lightbox por conteúdo</t>
+  </si>
+  <si>
+    <t>54B</t>
+  </si>
+  <si>
+    <t>Bug de update do Duplicator Pro</t>
+  </si>
+  <si>
+    <t>ERRO 500 e site fora do ar</t>
+  </si>
+  <si>
+    <t>Ferramente totalmente nova de Newsletter (MailPoet com Formidable)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -500,12 +523,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,7 +1452,7 @@
         <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C58">
         <v>50</v>
@@ -1609,7 +1636,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
         <v>110</v>
@@ -1620,10 +1647,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C76">
         <v>80</v>
@@ -1631,7 +1658,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B77" t="s">
         <v>111</v>
@@ -1733,7 +1760,7 @@
         <v>51</v>
       </c>
       <c r="B86" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C86">
         <v>200</v>
@@ -1795,105 +1822,155 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+      <c r="A92" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B92" t="s">
+        <v>142</v>
+      </c>
+      <c r="C92">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>57</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>128</v>
       </c>
-      <c r="C92">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B93" t="s">
-        <v>130</v>
-      </c>
       <c r="C93">
-        <v>960</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" t="s">
+        <v>130</v>
+      </c>
+      <c r="C94">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>133</v>
       </c>
-      <c r="C94">
+      <c r="C95">
         <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="1">
+        <v>57</v>
+      </c>
+      <c r="B96" t="s">
+        <v>146</v>
+      </c>
+      <c r="C96">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>59</v>
+      </c>
+      <c r="B97" t="s">
+        <v>150</v>
+      </c>
+      <c r="C97">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B97" t="s">
-        <v>143</v>
-      </c>
-      <c r="C97">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B102" t="s">
+        <v>151</v>
+      </c>
+      <c r="C102">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B100" t="s">
-        <v>135</v>
-      </c>
-      <c r="C100">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B107" t="s">
+        <v>147</v>
+      </c>
+      <c r="C107">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>56</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B108" t="s">
+        <v>138</v>
+      </c>
+      <c r="C108">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>58</v>
+      </c>
+      <c r="B109" t="s">
+        <v>149</v>
+      </c>
+      <c r="C109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
         <v>139</v>
       </c>
-      <c r="C101">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C102" t="s">
+      <c r="D111" t="s">
         <v>140</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E111" t="s">
         <v>141</v>
       </c>
-      <c r="E102" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C103">
-        <f>SUM(C1:C101)</f>
-        <v>18230</v>
-      </c>
-      <c r="D103" s="2">
-        <f>C103/60</f>
-        <v>303.83333333333331</v>
-      </c>
-      <c r="E103" s="2">
-        <f>D103/8</f>
-        <v>37.979166666666664</v>
-      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <f>SUM(C1:C110)</f>
+        <v>20440</v>
+      </c>
+      <c r="D112" s="2">
+        <f>C112/60</f>
+        <v>340.66666666666669</v>
+      </c>
+      <c r="E112" s="2">
+        <f>D112/8</f>
+        <v>42.583333333333336</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
